--- a/tools/mayan_sync_helper/xml_definitions/metadata_definitions.xlsx
+++ b/tools/mayan_sync_helper/xml_definitions/metadata_definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\pims\mayan_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\pims\PSP\tools\mayan_sync_helper\xml_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D7962D-BAE0-4745-BA06-1C6B8B6D6A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEE9B3E-ED71-4078-8127-DA93EBAE5772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22130" yWindow="2240" windowWidth="12950" windowHeight="15370" xr2:uid="{06071A43-643D-415D-9217-87256ECE2078}"/>
+    <workbookView xWindow="-22320" yWindow="240" windowWidth="22185" windowHeight="20505" xr2:uid="{06071A43-643D-415D-9217-87256ECE2078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -397,6 +416,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{06CA4FB1-A7C8-4B6D-BB54-8EFD5B1B8561}" name="Table1" displayName="Table1" ref="B3:C54" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B3:C54" xr:uid="{06CA4FB1-A7C8-4B6D-BB54-8EFD5B1B8561}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:C54">
+    <sortCondition ref="B10:B54"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7BA7A8E7-329B-4521-8BD2-E0253CD5AFF9}" name="Metadata Name (code)"/>
+    <tableColumn id="2" xr3:uid="{3AF7A174-C15A-41E5-BF9B-C0392FA672D4}" name="Metadata Label"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -698,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBFD0ED-6834-4A85-AB6E-9B1F32F072AA}">
   <dimension ref="B3:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -718,413 +751,419 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:C54">
+    <sortCondition ref="C4:C54"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>